--- a/tabular/HIV-1 reference sequences.xlsx
+++ b/tabular/HIV-1 reference sequences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="0" windowWidth="25220" windowHeight="26080" tabRatio="500"/>
+    <workbookView xWindow="17420" yWindow="460" windowWidth="25220" windowHeight="26080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,11 +598,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -648,7 +702,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="70">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -662,6 +716,60 @@
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,7 +1104,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1034,7 +1142,7 @@
       </c>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="48" customHeight="1">
+    <row r="2" spans="1:8" ht="23" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>

--- a/tabular/HIV-1 reference sequences.xlsx
+++ b/tabular/HIV-1 reference sequences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="460" windowWidth="25220" windowHeight="26080" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25660" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A42" sqref="A3:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/HIV-1 reference sequences.xlsx
+++ b/tabular/HIV-1 reference sequences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25660" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12740" yWindow="1880" windowWidth="25660" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
   <si>
     <t xml:space="preserve">Subtype </t>
   </si>
@@ -542,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +573,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -598,7 +604,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -669,10 +675,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -701,8 +711,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -770,6 +792,11 @@
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A3:B42"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1113,1027 +1140,1024 @@
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="23" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1983</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="17">
+        <v>9181</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1983</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="19">
+        <v>9719</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="14">
+        <v>9000</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="14">
+        <v>14825</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2014</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="14">
+        <v>9709</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1990</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="10">
+        <v>8996</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <v>671</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9359</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1058</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1998</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10">
+        <v>8834</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D10" s="9">
         <v>1992</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F10" s="9">
         <v>8999</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D11" s="9">
         <v>1994</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F11" s="9">
         <v>9160</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G11" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D12" s="10">
         <v>1994</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F12" s="10">
         <v>8813</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D13" s="10">
         <v>1998</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F13" s="10">
         <v>8807</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D14" s="10">
         <v>1997</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F14" s="10">
         <v>8972</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D15" s="10">
         <v>1994</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F15" s="10">
         <v>9060</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="15">
-        <v>9181</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="15">
-        <v>9000</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="15">
-        <v>14825</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2014</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="15">
-        <v>9709</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1986</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="10">
+        <v>9031</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1992</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="10">
+        <v>8959</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1995</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="10">
+        <v>9002</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2004</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="10">
+        <v>9011</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="9">
         <v>1983</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="10">
+        <v>9176</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1994</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="10">
+        <v>8952</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2001</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="10">
+        <v>8379</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2001</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="10">
+        <v>8775</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1993</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="10">
+        <v>8968</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1993</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="10">
+        <v>8903</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1993</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="10">
+        <v>8925</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1996</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="11">
-        <v>9719</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="F27" s="10">
+        <v>8614</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1995</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="10">
+        <v>8555</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1995</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="10">
+        <v>8589</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2002</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="10">
+        <v>8349</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1997</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="10">
+        <v>8782</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1993</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="10">
+        <v>9074</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1993</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="10">
+        <v>9048</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1996</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="10">
+        <v>9707</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1992</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="10">
+        <v>8987</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="9">
         <v>1990</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="11">
-        <v>8996</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8">
-        <v>671</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="11">
-        <v>9359</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1058</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1998</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="11">
-        <v>8834</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1986</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="11">
-        <v>9031</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1992</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="11">
-        <v>8959</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1995</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="11">
-        <v>9002</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2004</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="11">
-        <v>9011</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1983</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="E36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="10">
+        <v>8953</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1994</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="10">
+        <v>9056</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1993</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="10">
+        <v>8955</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1994</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="10">
+        <v>8943</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1993</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="10">
+        <v>8953</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1997</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="11">
-        <v>9176</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1994</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11">
-        <v>8952</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2001</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="F41" s="10">
+        <v>8600</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1996</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="11">
-        <v>8379</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="10">
-        <v>2001</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="11">
-        <v>8775</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1993</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="11">
-        <v>8968</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1993</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="11">
-        <v>8903</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1993</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="11">
-        <v>8925</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1996</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="11">
-        <v>8614</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1995</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="11">
-        <v>8555</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="F42" s="10">
+        <v>8604</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1995</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="11">
-        <v>8589</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2002</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="11">
-        <v>8349</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1997</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="11">
-        <v>8782</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1993</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="11">
-        <v>9074</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1993</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="11">
-        <v>9048</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="10">
-        <v>1996</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="11">
-        <v>9707</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1992</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="11">
-        <v>8987</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1990</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="11">
-        <v>8953</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1994</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="11">
-        <v>9056</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1993</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="11">
-        <v>8955</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1994</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="11">
-        <v>8943</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1993</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="11">
-        <v>8953</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="10">
-        <v>1997</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="11">
-        <v>8600</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1996</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="11">
-        <v>8604</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1"/>
+      <c r="H42" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/HIV-1 reference sequences.xlsx
+++ b/tabular/HIV-1 reference sequences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="1880" windowWidth="25660" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="15900" yWindow="3640" windowWidth="25660" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,11 +604,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -724,7 +733,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="84">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -797,6 +806,15 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,7 +1149,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/HIV-1 reference sequences.xlsx
+++ b/tabular/HIV-1 reference sequences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="3640" windowWidth="25660" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="27060" yWindow="0" windowWidth="22380" windowHeight="22880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,11 +604,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -733,7 +765,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="116">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -815,6 +847,38 @@
     <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,7 +1213,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/HIV-1 reference sequences.xlsx
+++ b/tabular/HIV-1 reference sequences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27060" yWindow="0" windowWidth="22380" windowHeight="22880" tabRatio="500"/>
+    <workbookView xWindow="4660" yWindow="0" windowWidth="22380" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,11 +604,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="116">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -765,7 +777,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="116">
+  <cellStyles count="128">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -879,6 +891,18 @@
     <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,7 +1237,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="C29" sqref="C29:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1879,7 +1903,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>77</v>
